--- a/课后作业/关键词分类_pytorch/类别分析.xlsx
+++ b/课后作业/关键词分类_pytorch/类别分析.xlsx
@@ -246,7 +246,7 @@
     <t>男鞋</t>
   </si>
   <si>
-    <t>对应 category = Men's Shoes</t>
+    <t>三个子类别是 Men Shoes</t>
   </si>
   <si>
     <t>Travel &amp; Luggage</t>
@@ -255,7 +255,7 @@
     <t>旅行和行李</t>
   </si>
   <si>
-    <t>对应 category = Travel &amp; Luggage</t>
+    <t>三个子类别是 Travel &amp; Luggage</t>
   </si>
   <si>
     <t>Video Games</t>
@@ -2751,8 +2751,8 @@
   <sheetPr/>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -3225,7 +3225,7 @@
       <c r="F22" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3246,7 +3246,7 @@
       <c r="F23" t="s">
         <v>70</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4028,8 +4028,8 @@
   <sheetPr/>
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A39" sqref="A24:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -4676,7 +4676,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -5134,8 +5134,8 @@
   <sheetPr/>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -5702,7 +5702,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -6102,8 +6102,8 @@
   <sheetPr/>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -6843,7 +6843,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -7349,7 +7349,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -7826,7 +7826,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E1"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -8331,8 +8331,8 @@
   <sheetPr/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="4"/>
